--- a/supp_tables/tableS6_validation_PPIs.xlsx
+++ b/supp_tables/tableS6_validation_PPIs.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/db766_cornell_edu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haozhou/Desktop/lupus_revised_ARD_final/supp_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{22828A46-662C-D745-86DB-084D65062E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3DE813-A16A-4496-AA69-5AA6576AD6D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58883D0B-3753-184A-8637-E682C715D9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="760" windowWidth="21240" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableS1_metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="bacterial_interactors" sheetId="2" r:id="rId2"/>
+    <sheet name="human_interactors" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bacterial_interactors!$A$1:$L$30</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
   <si>
     <t>UniRef cluster</t>
   </si>
@@ -116,13 +121,127 @@
   </si>
   <si>
     <t>ATGTCAACAGCTGAACAATATGAGCTAAATAAGAACTTAGCTCAAATGCTGAAGGGTGGCGTTATTATGGATGTGACCACCCCGGAACAAGCGAAAATTGCGGAGGAAGCGGGCGCGTGTGCAGTAATGGCTTTGGAGCGCATCCCGGCAGACATCCGTGCAGCGGGTGGTGTCAGCCGTATGTCGGATCCGCAGATGATCCGTGGCATCCAAGAAGCGGTGAGCATTCCGGTTATGGCCAAGTGCCGTATAGGCCACTTCGTTGAAGCTCAACTGCTGGAGGCTATCGAAATTGACTACATCGACGAATCCGAAGTTCTGTCTCCGGCTGACGACGTTTACCATATTGACAAACACCAATTTAAAGTGCCATTTGTGTGCGGTGCCAAGGACCTTGGCGAGGCGTTGCGTCGTATCAGCGAAGGTGCCAGCATGATTCGCACCAAAGGCGAGCCGGGTACTGGTGATGTTGTTCAGGCAGTGCGTCATATGCGTAAAATCAACAGCCAGATTGCGAAGGTGGTTTCCCTGAGAGAAGATGAACTGTTCGAGGCGGCGAAAGAACTCCAGGTTCCGTATGATCTGGTGGTTTATGTTCACAATAACGGTAAGCTGCCTGTTGTGAATTTCGCTGCCGGCGGTGTTGCAACCCCGGCGGATGCGGCTTTGATGATGCAGCTGGGCGCCGAGGGCGTGTTTGTCGGTAGTGGTATCTTCAAAAGCGGTAATCCGGCGAAGCGCGCGGCGGCGATCGTCAAAGCGGTGACGAACTACACCGATGCAAAGCTGATTGCGGAGTTGTCTGCGGGCCTGGGAGAGGCAATGGTGGGTATTAACGAGCAGGAGATCGCATTGCTGATGGCGGAGCGCGGCAAA</t>
+  </si>
+  <si>
+    <t>bacterial_cluster</t>
+  </si>
+  <si>
+    <t>human_interactor</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>p_value_corrected</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>fold_change</t>
+  </si>
+  <si>
+    <t>avg_rel_abundance_control</t>
+  </si>
+  <si>
+    <t>avg_rel_abundance_patient</t>
+  </si>
+  <si>
+    <t>non_zero_count_control</t>
+  </si>
+  <si>
+    <t>non_zero_count_patient</t>
+  </si>
+  <si>
+    <t>study_name</t>
+  </si>
+  <si>
+    <t>P04150</t>
+  </si>
+  <si>
+    <t>NR3C1</t>
+  </si>
+  <si>
+    <t>SLE_Chen</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>IBD_Franzosa</t>
+  </si>
+  <si>
+    <t>SLE_Yale</t>
+  </si>
+  <si>
+    <t>UniRef50_P03965</t>
+  </si>
+  <si>
+    <t>IBD_Schirmer</t>
+  </si>
+  <si>
+    <t>UniRef50_P0CS90</t>
+  </si>
+  <si>
+    <t>UniRef50_P37527</t>
+  </si>
+  <si>
+    <t>P10145</t>
+  </si>
+  <si>
+    <t>CXCL8</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>coef</t>
+  </si>
+  <si>
+    <t>stderr</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N.not.0</t>
+  </si>
+  <si>
+    <t>pval</t>
+  </si>
+  <si>
+    <t>qval</t>
+  </si>
+  <si>
+    <t>IBD</t>
+  </si>
+  <si>
+    <t>SchirmerM_2018_IBD</t>
+  </si>
+  <si>
+    <t>FranzosaEA_2019_IBD</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>Yale_2021_SLE</t>
+  </si>
+  <si>
+    <t>ChenB_2021_SLE</t>
+  </si>
+  <si>
+    <t>human interactor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +376,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -439,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -554,6 +681,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -599,8 +741,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -958,19 +1103,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1012,7 +1157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1040,7 +1185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1085,4 +1230,1467 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B80D56-35AC-7E4A-AB16-9F60C097C38E}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>0.685328676343266</v>
+      </c>
+      <c r="E2">
+        <v>0.7489814945794826</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.174343500197147</v>
+      </c>
+      <c r="H2">
+        <v>1.575118324716336E-7</v>
+      </c>
+      <c r="I2">
+        <v>1.8497299666720479E-7</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>1.8605928518676752E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.6244726150978059E-2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.082034414102258E-7</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>4.1054672838380331E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.3377403113476338E-2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.049986347130031</v>
+      </c>
+      <c r="H4">
+        <v>5.8379903681282978E-7</v>
+      </c>
+      <c r="I4">
+        <v>1.1967800549339631E-6</v>
+      </c>
+      <c r="J4">
+        <v>78</v>
+      </c>
+      <c r="K4">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>0.44826702866794899</v>
+      </c>
+      <c r="H5">
+        <v>3.0827418016903852E-7</v>
+      </c>
+      <c r="I5">
+        <v>1.381891507594228E-7</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>3.3242565541525999E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.3747398154511653E-2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.2830771486254431</v>
+      </c>
+      <c r="H6">
+        <v>1.2617465503931921E-7</v>
+      </c>
+      <c r="I6">
+        <v>1.0451144018918829E-6</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>2.1395326033286401E-4</v>
+      </c>
+      <c r="E7">
+        <v>2.4213898183735828E-3</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>0.59856579384669317</v>
+      </c>
+      <c r="H7">
+        <v>1.6617826121343761E-5</v>
+      </c>
+      <c r="I7">
+        <v>9.9468622843284408E-6</v>
+      </c>
+      <c r="J7">
+        <v>112</v>
+      </c>
+      <c r="K7">
+        <v>107</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>0.75785815364565345</v>
+      </c>
+      <c r="E8">
+        <v>0.95226609816473529</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.5521100901892739</v>
+      </c>
+      <c r="H8">
+        <v>1.1937627538345099E-5</v>
+      </c>
+      <c r="I8">
+        <v>1.852851215518678E-5</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>0.93083712863989065</v>
+      </c>
+      <c r="E9">
+        <v>0.97575658262919351</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.1302485258282</v>
+      </c>
+      <c r="H9">
+        <v>1.0154140346232819E-5</v>
+      </c>
+      <c r="I9">
+        <v>1.147670215738229E-5</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>4.0593340747037888E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.2276832394445048E-2</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>0.67943058439211945</v>
+      </c>
+      <c r="H10">
+        <v>8.5290868030471711E-6</v>
+      </c>
+      <c r="I10">
+        <v>5.7949224309254534E-6</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>0.2341022433171788</v>
+      </c>
+      <c r="E11">
+        <v>0.30796804431415198</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.7275505305186021</v>
+      </c>
+      <c r="H11">
+        <v>3.4733028627879079E-7</v>
+      </c>
+      <c r="I11">
+        <v>6.0003062032610279E-7</v>
+      </c>
+      <c r="J11">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>0.69499912180858525</v>
+      </c>
+      <c r="E12">
+        <v>0.95127307087221169</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>0.68811419010391994</v>
+      </c>
+      <c r="H12">
+        <v>5.096944023908694E-6</v>
+      </c>
+      <c r="I12">
+        <v>3.5072795090169461E-6</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>0.54468029814221808</v>
+      </c>
+      <c r="E13">
+        <v>0.79413849070158649</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>0.30333289804899549</v>
+      </c>
+      <c r="H13">
+        <v>1.8801480257068359E-6</v>
+      </c>
+      <c r="I13">
+        <v>5.7031074939875187E-7</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>3.699075487923652E-3</v>
+      </c>
+      <c r="E14">
+        <v>6.4001989557240166E-3</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>0.73932484939812304</v>
+      </c>
+      <c r="H14">
+        <v>4.6028757843921083E-6</v>
+      </c>
+      <c r="I14">
+        <v>3.4030204460939632E-6</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>4.097375468718527E-3</v>
+      </c>
+      <c r="E15">
+        <v>8.2407482052626133E-3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.2029927960417841</v>
+      </c>
+      <c r="H15">
+        <v>1.1078757948074061E-6</v>
+      </c>
+      <c r="I15">
+        <v>2.4406423948697811E-6</v>
+      </c>
+      <c r="J15">
+        <v>97</v>
+      </c>
+      <c r="K15">
+        <v>97</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>5.1974799532724228E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.89752518889270227</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.0044026762909457</v>
+      </c>
+      <c r="H16">
+        <v>3.40003212621704E-7</v>
+      </c>
+      <c r="I16">
+        <v>2.041516199813279E-6</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>0.70786811569816532</v>
+      </c>
+      <c r="E17">
+        <v>0.86408728605913976</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.6363123034058713</v>
+      </c>
+      <c r="H17">
+        <v>1.984598006582295E-7</v>
+      </c>
+      <c r="I17">
+        <v>1.317041216839685E-6</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>3.7658506970583358E-4</v>
+      </c>
+      <c r="E18">
+        <v>1.6467038048045991E-3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.775162101439159</v>
+      </c>
+      <c r="H18">
+        <v>2.1729328725012909E-7</v>
+      </c>
+      <c r="I18">
+        <v>2.3413703936747238E-6</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>52</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>9.2375995301256394E-9</v>
+      </c>
+      <c r="E19">
+        <v>4.8913089512015261E-6</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19">
+        <v>0.6955383603818206</v>
+      </c>
+      <c r="H19">
+        <v>8.5614045221456947E-5</v>
+      </c>
+      <c r="I19">
+        <v>5.9547852638987203E-5</v>
+      </c>
+      <c r="J19">
+        <v>115</v>
+      </c>
+      <c r="K19">
+        <v>117</v>
+      </c>
+      <c r="L19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>3.9343739041327708E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.87305630444089111</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <v>0.61602327339812613</v>
+      </c>
+      <c r="H20">
+        <v>4.8475111120835582E-5</v>
+      </c>
+      <c r="I20">
+        <v>2.9861796630995041E-5</v>
+      </c>
+      <c r="J20">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>0.1050624377624457</v>
+      </c>
+      <c r="E21">
+        <v>0.7776911304214803</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>0.79049248719127152</v>
+      </c>
+      <c r="H21">
+        <v>2.488848207391109E-5</v>
+      </c>
+      <c r="I21">
+        <v>1.967415809702136E-5</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>7.5924092865838212E-6</v>
+      </c>
+      <c r="E22">
+        <v>4.0494964347203178E-4</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <v>0.6813445820407199</v>
+      </c>
+      <c r="H22">
+        <v>7.5846247478595659E-5</v>
+      </c>
+      <c r="I22">
+        <v>5.1677429787660763E-5</v>
+      </c>
+      <c r="J22">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <v>118</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>1.2009530700451851E-5</v>
+      </c>
+      <c r="E23">
+        <v>3.9744040661807828E-4</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <v>0.78525306477858214</v>
+      </c>
+      <c r="H23">
+        <v>1.4690375669151679E-7</v>
+      </c>
+      <c r="I23">
+        <v>1.153566251695007E-7</v>
+      </c>
+      <c r="J23">
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>6.481583175829822E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.89752518889270227</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.2456898165379933</v>
+      </c>
+      <c r="H24">
+        <v>5.2719999158169625E-7</v>
+      </c>
+      <c r="I24">
+        <v>3.2927276187007159E-6</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>0.89905995360573143</v>
+      </c>
+      <c r="E25">
+        <v>0.96095176200612598</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.715396165433396</v>
+      </c>
+      <c r="H25">
+        <v>3.3529496368553208E-8</v>
+      </c>
+      <c r="I25">
+        <v>9.1045865868082345E-8</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>0.23930047536081661</v>
+      </c>
+      <c r="E26">
+        <v>0.27115083309435278</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.1570594445591</v>
+      </c>
+      <c r="H26">
+        <v>4.2993192656172031E-7</v>
+      </c>
+      <c r="I26">
+        <v>9.2738872270744823E-7</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>0.12634807326310221</v>
+      </c>
+      <c r="E27">
+        <v>0.17582471693249041</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.082185565399584</v>
+      </c>
+      <c r="H27">
+        <v>4.8584246596666756E-6</v>
+      </c>
+      <c r="I27">
+        <v>5.2577170372726637E-6</v>
+      </c>
+      <c r="J27">
+        <v>105</v>
+      </c>
+      <c r="K27">
+        <v>92</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>0.30607509975839692</v>
+      </c>
+      <c r="E28">
+        <v>0.89752518889270227</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.728935044069809</v>
+      </c>
+      <c r="H28">
+        <v>1.3675076958104461E-5</v>
+      </c>
+      <c r="I28">
+        <v>2.3643319783218359E-5</v>
+      </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>13</v>
+      </c>
+      <c r="L28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>2.0102028204008961E-3</v>
+      </c>
+      <c r="E29">
+        <v>0.2654465927288161</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>0.50094205783310852</v>
+      </c>
+      <c r="H29">
+        <v>9.1862862925542588E-6</v>
+      </c>
+      <c r="I29">
+        <v>4.6017971592362079E-6</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>55</v>
+      </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>1.8662614233904199E-5</v>
+      </c>
+      <c r="E30">
+        <v>4.5493536516253937E-4</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <v>0.71815659732289328</v>
+      </c>
+      <c r="H30">
+        <v>6.4292600219139284E-6</v>
+      </c>
+      <c r="I30">
+        <v>4.6172155006418167E-6</v>
+      </c>
+      <c r="J30">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>62</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L30" xr:uid="{99B80D56-35AC-7E4A-AB16-9F60C097C38E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6130810E-EEE5-ED4E-A222-57C19AE596DB}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>-2.2339187148452599</v>
+      </c>
+      <c r="E2">
+        <v>0.87294918814014</v>
+      </c>
+      <c r="F2">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <v>73</v>
+      </c>
+      <c r="H2">
+        <v>1.20750371941152E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.59194871090897805</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>-2.0065341595848101</v>
+      </c>
+      <c r="E3">
+        <v>0.46024191844889101</v>
+      </c>
+      <c r="F3">
+        <v>175</v>
+      </c>
+      <c r="G3">
+        <v>111</v>
+      </c>
+      <c r="H3">
+        <v>2.2362639595246198E-5</v>
+      </c>
+      <c r="I3">
+        <v>5.9179250393149999E-4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>1.21727026454716</v>
+      </c>
+      <c r="E4">
+        <v>0.94517067289595702</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>0.207022211222434</v>
+      </c>
+      <c r="I4">
+        <v>0.77102039932729904</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>-1.1318751116658801</v>
+      </c>
+      <c r="E5">
+        <v>0.39427974733718202</v>
+      </c>
+      <c r="F5">
+        <v>232</v>
+      </c>
+      <c r="G5">
+        <v>201</v>
+      </c>
+      <c r="H5">
+        <v>4.4805183121908003E-3</v>
+      </c>
+      <c r="I5">
+        <v>3.3154783302763301E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>-8.8413032847462505E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.33341276356273802</v>
+      </c>
+      <c r="F6">
+        <v>104</v>
+      </c>
+      <c r="G6">
+        <v>103</v>
+      </c>
+      <c r="H6">
+        <v>0.79144849720204202</v>
+      </c>
+      <c r="I6">
+        <v>0.96556081107962499</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>-0.71530007319532396</v>
+      </c>
+      <c r="E7">
+        <v>0.215647607608876</v>
+      </c>
+      <c r="F7">
+        <v>175</v>
+      </c>
+      <c r="G7">
+        <v>175</v>
+      </c>
+      <c r="H7">
+        <v>1.1102594135779999E-3</v>
+      </c>
+      <c r="I7">
+        <v>4.7700993708216996E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>3.8244861401014997E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.27431250811702101</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0.88999145505282296</v>
+      </c>
+      <c r="I8">
+        <v>0.97676715009781101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>-0.56720560507376405</v>
+      </c>
+      <c r="E9">
+        <v>0.10673636347292401</v>
+      </c>
+      <c r="F9">
+        <v>232</v>
+      </c>
+      <c r="G9">
+        <v>232</v>
+      </c>
+      <c r="H9">
+        <v>2.5481026961894102E-7</v>
+      </c>
+      <c r="I9">
+        <v>5.9625603090832197E-5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>